--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H2">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I2">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J2">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N2">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O2">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P2">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q2">
-        <v>3.807306367494667</v>
+        <v>23.852832710744</v>
       </c>
       <c r="R2">
-        <v>34.26575730745201</v>
+        <v>214.675494396696</v>
       </c>
       <c r="S2">
-        <v>0.0063443129512862</v>
+        <v>0.0297108607820078</v>
       </c>
       <c r="T2">
-        <v>0.0063443129512862</v>
+        <v>0.02971086078200779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H3">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I3">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J3">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.316803</v>
       </c>
       <c r="O3">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P3">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q3">
-        <v>0.2370073536881111</v>
+        <v>0.8488906763440001</v>
       </c>
       <c r="R3">
-        <v>2.133066183193</v>
+        <v>7.640016087096001</v>
       </c>
       <c r="S3">
-        <v>0.0003949377009402589</v>
+        <v>0.001057370124959651</v>
       </c>
       <c r="T3">
-        <v>0.000394937700940259</v>
+        <v>0.00105737012495965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H4">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I4">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J4">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N4">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O4">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P4">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q4">
-        <v>10.970935621404</v>
+        <v>39.74514475472</v>
       </c>
       <c r="R4">
-        <v>98.73842059263599</v>
+        <v>357.70630279248</v>
       </c>
       <c r="S4">
-        <v>0.0182814415842247</v>
+        <v>0.04950617299371488</v>
       </c>
       <c r="T4">
-        <v>0.01828144158422471</v>
+        <v>0.04950617299371488</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H5">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I5">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J5">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N5">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O5">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P5">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q5">
-        <v>0.5207743788096666</v>
+        <v>2.918450804872001</v>
       </c>
       <c r="R5">
-        <v>4.686969409287</v>
+        <v>26.266057243848</v>
       </c>
       <c r="S5">
-        <v>0.0008677934784518811</v>
+        <v>0.003635194469947969</v>
       </c>
       <c r="T5">
-        <v>0.0008677934784518814</v>
+        <v>0.003635194469947968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H6">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I6">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J6">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N6">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O6">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P6">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q6">
-        <v>4.257916340442111</v>
+        <v>14.150961950352</v>
       </c>
       <c r="R6">
-        <v>38.32124706397899</v>
+        <v>127.358657553168</v>
       </c>
       <c r="S6">
-        <v>0.007095187824859976</v>
+        <v>0.01762630315388163</v>
       </c>
       <c r="T6">
-        <v>0.007095187824859977</v>
+        <v>0.01762630315388163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H7">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I7">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J7">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N7">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O7">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P7">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q7">
-        <v>12.45135138365922</v>
+        <v>24.08577937512</v>
       </c>
       <c r="R7">
-        <v>112.062162452933</v>
+        <v>216.77201437608</v>
       </c>
       <c r="S7">
-        <v>0.02074833549482545</v>
+        <v>0.03000101692399889</v>
       </c>
       <c r="T7">
-        <v>0.02074833549482545</v>
+        <v>0.03000101692399888</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.034941</v>
       </c>
       <c r="I8">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J8">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N8">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O8">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P8">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q8">
-        <v>15.67933164844133</v>
+        <v>27.42582756399144</v>
       </c>
       <c r="R8">
-        <v>141.113984835972</v>
+        <v>246.832448075923</v>
       </c>
       <c r="S8">
-        <v>0.02612728717972216</v>
+        <v>0.03416134907188915</v>
       </c>
       <c r="T8">
-        <v>0.02612728717972216</v>
+        <v>0.03416134907188915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.034941</v>
       </c>
       <c r="I9">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J9">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.316803</v>
       </c>
       <c r="O9">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P9">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q9">
         <v>0.9760488237358887</v>
@@ -1013,10 +1013,10 @@
         <v>8.784439413623</v>
       </c>
       <c r="S9">
-        <v>0.001626441004691208</v>
+        <v>0.00121575709980129</v>
       </c>
       <c r="T9">
-        <v>0.001626441004691209</v>
+        <v>0.00121575709980129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.034941</v>
       </c>
       <c r="I10">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J10">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N10">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O10">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P10">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q10">
-        <v>45.18074499344399</v>
+        <v>45.69870169163778</v>
       </c>
       <c r="R10">
-        <v>406.6267049409959</v>
+        <v>411.28831522474</v>
       </c>
       <c r="S10">
-        <v>0.07528702918627611</v>
+        <v>0.05692186669582375</v>
       </c>
       <c r="T10">
-        <v>0.07528702918627612</v>
+        <v>0.05692186669582375</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.034941</v>
       </c>
       <c r="I11">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J11">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N11">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O11">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P11">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q11">
-        <v>2.144664340406333</v>
+        <v>3.355615221849889</v>
       </c>
       <c r="R11">
-        <v>19.301979063657</v>
+        <v>30.200536996649</v>
       </c>
       <c r="S11">
-        <v>0.003573765922061861</v>
+        <v>0.004179722295602288</v>
       </c>
       <c r="T11">
-        <v>0.003573765922061861</v>
+        <v>0.004179722295602288</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.034941</v>
       </c>
       <c r="I12">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J12">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N12">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O12">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P12">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q12">
-        <v>17.53504341102989</v>
+        <v>16.27068143315933</v>
       </c>
       <c r="R12">
-        <v>157.815390699269</v>
+        <v>146.436132898434</v>
       </c>
       <c r="S12">
-        <v>0.02921955636766037</v>
+        <v>0.0202666055118582</v>
       </c>
       <c r="T12">
-        <v>0.02921955636766037</v>
+        <v>0.0202666055118582</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.034941</v>
       </c>
       <c r="I13">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J13">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N13">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O13">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P13">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q13">
-        <v>51.27742529008478</v>
+        <v>27.69366808114333</v>
       </c>
       <c r="R13">
-        <v>461.496827610763</v>
+        <v>249.24301273029</v>
       </c>
       <c r="S13">
-        <v>0.08544624518634855</v>
+        <v>0.03449496866388403</v>
       </c>
       <c r="T13">
-        <v>0.08544624518634857</v>
+        <v>0.03449496866388403</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H14">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I14">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J14">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N14">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O14">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P14">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q14">
-        <v>7.675613652785334</v>
+        <v>12.32987747486178</v>
       </c>
       <c r="R14">
-        <v>69.080522875068</v>
+        <v>110.968897273756</v>
       </c>
       <c r="S14">
-        <v>0.01279027490989097</v>
+        <v>0.01535797771095866</v>
       </c>
       <c r="T14">
-        <v>0.01279027490989097</v>
+        <v>0.01535797771095866</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H15">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I15">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J15">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.316803</v>
       </c>
       <c r="O15">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P15">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q15">
-        <v>0.4778120550818888</v>
+        <v>0.4388039842395555</v>
       </c>
       <c r="R15">
-        <v>4.300308495737</v>
+        <v>3.949235858156</v>
       </c>
       <c r="S15">
-        <v>0.0007962031201947787</v>
+        <v>0.0005465700549880363</v>
       </c>
       <c r="T15">
-        <v>0.0007962031201947788</v>
+        <v>0.0005465700549880363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H16">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I16">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J16">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N16">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O16">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P16">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q16">
-        <v>22.117648308636</v>
+        <v>20.54484559503111</v>
       </c>
       <c r="R16">
-        <v>199.058834777724</v>
+        <v>184.90361035528</v>
       </c>
       <c r="S16">
-        <v>0.03685578965078366</v>
+        <v>0.02559046360086496</v>
       </c>
       <c r="T16">
-        <v>0.03685578965078366</v>
+        <v>0.02559046360086496</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H17">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I17">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J17">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N17">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O17">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P17">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q17">
-        <v>1.049892639620333</v>
+        <v>1.508589829847556</v>
       </c>
       <c r="R17">
-        <v>9.449033756582999</v>
+        <v>13.577308468628</v>
       </c>
       <c r="S17">
-        <v>0.001749490802177391</v>
+        <v>0.001879085094642225</v>
       </c>
       <c r="T17">
-        <v>0.001749490802177391</v>
+        <v>0.001879085094642225</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H18">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I18">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J18">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N18">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O18">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P18">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q18">
-        <v>8.584053301867888</v>
+        <v>7.314838833405332</v>
       </c>
       <c r="R18">
-        <v>77.25647971681099</v>
+        <v>65.83354950064799</v>
       </c>
       <c r="S18">
-        <v>0.01430405522458859</v>
+        <v>0.009111293440809586</v>
       </c>
       <c r="T18">
-        <v>0.01430405522458859</v>
+        <v>0.009111293440809586</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H19">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I19">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J19">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N19">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O19">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P19">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q19">
-        <v>25.10219915371078</v>
+        <v>12.45029100665333</v>
       </c>
       <c r="R19">
-        <v>225.919792383397</v>
+        <v>112.05261905988</v>
       </c>
       <c r="S19">
-        <v>0.04182910221155871</v>
+        <v>0.01550796365697661</v>
       </c>
       <c r="T19">
-        <v>0.04182910221155872</v>
+        <v>0.01550796365697661</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H20">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I20">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J20">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N20">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O20">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P20">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q20">
-        <v>31.49297780983201</v>
+        <v>16.70238196634989</v>
       </c>
       <c r="R20">
-        <v>283.436800288488</v>
+        <v>150.321437697149</v>
       </c>
       <c r="S20">
-        <v>0.05247838962982165</v>
+        <v>0.02080432757601228</v>
       </c>
       <c r="T20">
-        <v>0.05247838962982166</v>
+        <v>0.02080432757601228</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H21">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I21">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J21">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.316803</v>
       </c>
       <c r="O21">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P21">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q21">
-        <v>1.960458815238</v>
+        <v>0.5944156191387777</v>
       </c>
       <c r="R21">
-        <v>17.644129337142</v>
+        <v>5.349740572249</v>
       </c>
       <c r="S21">
-        <v>0.003266814658827181</v>
+        <v>0.0007403984223193899</v>
       </c>
       <c r="T21">
-        <v>0.003266814658827181</v>
+        <v>0.0007403984223193899</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H22">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I22">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J22">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N22">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O22">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P22">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q22">
-        <v>90.74852368797599</v>
+        <v>27.83059760873556</v>
       </c>
       <c r="R22">
-        <v>816.7367131917839</v>
+        <v>250.47537847862</v>
       </c>
       <c r="S22">
-        <v>0.151218992792162</v>
+        <v>0.03466552677664882</v>
       </c>
       <c r="T22">
-        <v>0.151218992792162</v>
+        <v>0.03466552677664882</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H23">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I23">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J23">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N23">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O23">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P23">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q23">
-        <v>4.307700608442</v>
+        <v>2.043576152320778</v>
       </c>
       <c r="R23">
-        <v>38.769305475978</v>
+        <v>18.392185370887</v>
       </c>
       <c r="S23">
-        <v>0.007178145944263916</v>
+        <v>0.002545458952205931</v>
       </c>
       <c r="T23">
-        <v>0.007178145944263916</v>
+        <v>0.002545458952205931</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H24">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I24">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J24">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N24">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O24">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P24">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q24">
-        <v>35.220297996114</v>
+        <v>9.908876423704665</v>
       </c>
       <c r="R24">
-        <v>316.982681965026</v>
+        <v>89.17988781334198</v>
       </c>
       <c r="S24">
-        <v>0.05868941744027339</v>
+        <v>0.01234240190676396</v>
       </c>
       <c r="T24">
-        <v>0.05868941744027339</v>
+        <v>0.01234240190676396</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H25">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I25">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J25">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N25">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O25">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P25">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q25">
-        <v>102.994110528078</v>
+        <v>16.86549735869666</v>
       </c>
       <c r="R25">
-        <v>926.946994752702</v>
+        <v>151.78947622827</v>
       </c>
       <c r="S25">
-        <v>0.1716244521082405</v>
+        <v>0.02100750255200726</v>
       </c>
       <c r="T25">
-        <v>0.1716244521082405</v>
+        <v>0.02100750255200726</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H26">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I26">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J26">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N26">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O26">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P26">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q26">
-        <v>5.913082397785334</v>
+        <v>34.99754314710455</v>
       </c>
       <c r="R26">
-        <v>53.21774158006801</v>
+        <v>314.977888323941</v>
       </c>
       <c r="S26">
-        <v>0.009853277256218729</v>
+        <v>0.04359260574059933</v>
       </c>
       <c r="T26">
-        <v>0.009853277256218733</v>
+        <v>0.04359260574059933</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H27">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I27">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J27">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.316803</v>
       </c>
       <c r="O27">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P27">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q27">
-        <v>0.3680933121652222</v>
+        <v>1.245516137760111</v>
       </c>
       <c r="R27">
-        <v>3.312839809487</v>
+        <v>11.209645239841</v>
       </c>
       <c r="S27">
-        <v>0.0006133730628009211</v>
+        <v>0.001551403014454817</v>
       </c>
       <c r="T27">
-        <v>0.0006133730628009213</v>
+        <v>0.001551403014454817</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H28">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I28">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J28">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N28">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O28">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P28">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q28">
-        <v>17.038830093636</v>
+        <v>58.31518777284223</v>
       </c>
       <c r="R28">
-        <v>153.349470842724</v>
+        <v>524.83668995558</v>
       </c>
       <c r="S28">
-        <v>0.0283926902654154</v>
+        <v>0.07263684135155773</v>
       </c>
       <c r="T28">
-        <v>0.02839269026541541</v>
+        <v>0.07263684135155773</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H29">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I29">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J29">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N29">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O29">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P29">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q29">
-        <v>0.8088085158703333</v>
+        <v>4.282032629198111</v>
       </c>
       <c r="R29">
-        <v>7.279276642833</v>
+        <v>38.538293662783</v>
       </c>
       <c r="S29">
-        <v>0.001347759766893493</v>
+        <v>0.005333658976814736</v>
       </c>
       <c r="T29">
-        <v>0.001347759766893494</v>
+        <v>0.005333658976814735</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H30">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I30">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J30">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N30">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O30">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P30">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q30">
-        <v>6.612919406451222</v>
+        <v>20.76268707520866</v>
       </c>
       <c r="R30">
-        <v>59.516274658061</v>
+        <v>186.864183676878</v>
       </c>
       <c r="S30">
-        <v>0.01101945212351475</v>
+        <v>0.02586180486957669</v>
       </c>
       <c r="T30">
-        <v>0.01101945212351475</v>
+        <v>0.02586180486957669</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H31">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I31">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J31">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N31">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O31">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P31">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q31">
-        <v>19.33804626912745</v>
+        <v>35.33932900693666</v>
       </c>
       <c r="R31">
-        <v>174.042416422147</v>
+        <v>318.05396106243</v>
       </c>
       <c r="S31">
-        <v>0.03222399396204326</v>
+        <v>0.04401833094573007</v>
       </c>
       <c r="T31">
-        <v>0.03222399396204327</v>
+        <v>0.04401833094573007</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H32">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I32">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J32">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>23.115164</v>
+        <v>40.43236766666666</v>
       </c>
       <c r="N32">
-        <v>69.34549200000001</v>
+        <v>121.297103</v>
       </c>
       <c r="O32">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898554</v>
       </c>
       <c r="P32">
-        <v>0.1180732502892685</v>
+        <v>0.2258746907898553</v>
       </c>
       <c r="Q32">
-        <v>6.289012014972001</v>
+        <v>66.03098914852201</v>
       </c>
       <c r="R32">
-        <v>56.60110813474801</v>
+        <v>594.278902336698</v>
       </c>
       <c r="S32">
-        <v>0.01047970836232876</v>
+        <v>0.08224756990838816</v>
       </c>
       <c r="T32">
-        <v>0.01047970836232876</v>
+        <v>0.08224756990838814</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H33">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I33">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J33">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.316803</v>
       </c>
       <c r="O33">
-        <v>0.00735013836326181</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="P33">
-        <v>0.007350138363261811</v>
+        <v>0.008038580631441132</v>
       </c>
       <c r="Q33">
-        <v>0.391495180873</v>
+        <v>2.349955316322</v>
       </c>
       <c r="R33">
-        <v>3.523456627857</v>
+        <v>21.149597846898</v>
       </c>
       <c r="S33">
-        <v>0.0006523688158074624</v>
+        <v>0.002927081914917949</v>
       </c>
       <c r="T33">
-        <v>0.0006523688158074624</v>
+        <v>0.002927081914917949</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H34">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I34">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J34">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>66.60745199999999</v>
+        <v>67.37104666666667</v>
       </c>
       <c r="N34">
-        <v>199.822356</v>
+        <v>202.11314</v>
       </c>
       <c r="O34">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="P34">
-        <v>0.3402337249749314</v>
+        <v>0.3763671338635907</v>
       </c>
       <c r="Q34">
-        <v>18.122089287996</v>
+        <v>110.02513847436</v>
       </c>
       <c r="R34">
-        <v>163.098803591964</v>
+        <v>990.2262462692402</v>
       </c>
       <c r="S34">
-        <v>0.03019778149606947</v>
+        <v>0.1370462624449806</v>
       </c>
       <c r="T34">
-        <v>0.03019778149606947</v>
+        <v>0.1370462624449806</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H35">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I35">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J35">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.161759</v>
+        <v>4.946996333333334</v>
       </c>
       <c r="N35">
-        <v>9.485277</v>
+        <v>14.840989</v>
       </c>
       <c r="O35">
-        <v>0.01615040073959013</v>
+        <v>0.0276363055545576</v>
       </c>
       <c r="P35">
-        <v>0.01615040073959013</v>
+        <v>0.02763630555455759</v>
       </c>
       <c r="Q35">
-        <v>0.860229256407</v>
+        <v>8.079048545886002</v>
       </c>
       <c r="R35">
-        <v>7.742063307663</v>
+        <v>72.71143691297401</v>
       </c>
       <c r="S35">
-        <v>0.001433444825741587</v>
+        <v>0.01006318576534445</v>
       </c>
       <c r="T35">
-        <v>0.001433444825741587</v>
+        <v>0.01006318576534445</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H36">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I36">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J36">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.85093633333333</v>
+        <v>23.986958</v>
       </c>
       <c r="N36">
-        <v>77.552809</v>
+        <v>71.96087399999999</v>
       </c>
       <c r="O36">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="P36">
-        <v>0.1320476928434343</v>
+        <v>0.1340027070862339</v>
       </c>
       <c r="Q36">
-        <v>7.033341801019001</v>
+        <v>39.173628822876</v>
       </c>
       <c r="R36">
-        <v>63.300076209171</v>
+        <v>352.562659405884</v>
       </c>
       <c r="S36">
-        <v>0.01172002386253723</v>
+        <v>0.04879429820334383</v>
       </c>
       <c r="T36">
-        <v>0.01172002386253723</v>
+        <v>0.04879429820334382</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H37">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I37">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J37">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>75.59544766666667</v>
+        <v>40.82722999999999</v>
       </c>
       <c r="N37">
-        <v>226.786343</v>
+        <v>122.48169</v>
       </c>
       <c r="O37">
-        <v>0.3861447927895138</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="P37">
-        <v>0.3861447927895139</v>
+        <v>0.2280805820743214</v>
       </c>
       <c r="Q37">
-        <v>20.567480233013</v>
+        <v>66.67584751206</v>
       </c>
       <c r="R37">
-        <v>185.107322097117</v>
+        <v>600.08262760854</v>
       </c>
       <c r="S37">
-        <v>0.0342726638264973</v>
+        <v>0.08305079933172456</v>
       </c>
       <c r="T37">
-        <v>0.0342726638264973</v>
+        <v>0.08305079933172455</v>
       </c>
     </row>
   </sheetData>
